--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/52_Kocaeli_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/52_Kocaeli_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28D575A7-73B2-4651-B129-174A18C40D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5EC9D26-81D3-48CE-BA9A-59AC14EB0345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4C2F8CA4-09FC-4DD8-8279-EBB4353B5980}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{11123407-6B8E-4D9C-8A17-2332C26C0995}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{BA48148C-7FA0-4456-AFFA-1976262541BC}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{1BD545D8-BCCE-4E87-A318-900AE40DB5F5}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{7A71941C-9858-4A78-89EB-766F99B553BD}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{1FD83DE4-1885-459C-AA0F-76A32601AA1F}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{9899FE39-94EA-4A35-83B8-D969F478BED5}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{A47EB25D-46FB-4820-8762-F218D087B643}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{6438791D-E1D2-484C-8841-94CDB389019C}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{02616913-C60F-447B-85FB-BCD140B05A82}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4403A6C2-4874-43DB-A9CE-2BAAF94BE615}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8EA12FD-33B7-4675-82E9-16174575AF68}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2509,18 +2509,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{9C542EBF-4022-459F-9D6C-C90AE13BC648}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F5751382-4F87-4D63-98D3-F0BD059CB079}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E14633B8-2A09-46AA-8BD3-D20C8EE88279}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0D85269D-71C7-4EC4-9989-AE44ACAEA924}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D39EBAFF-DA1E-4537-97B5-FED0D5C06299}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3AF1DEDE-CB58-4B14-BD61-800A81337137}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{DAD171F4-4174-4094-A6B4-60648B468F41}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3FA1D7FC-3FFB-4D2B-BC4A-3C4D54D3487A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E7FE66BB-456F-4EEE-8734-A0B9FEAAAEEB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B2001747-D74F-4831-AE0D-EB64579BEAB2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B8F3614B-26D4-46C9-8DEC-0A6495F7CD6F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{FFE07683-B302-4804-9A49-D20333C6A6D8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{1E167238-534D-4F55-8A03-80C010B5DEED}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{CF60678C-B00D-4946-8361-A73C2CF44851}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{CB48FFB0-3CA2-4643-8E23-8A9985A0EDFE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C8213EFF-1113-4D67-BA2A-693A0AC124E1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4C9B7FE0-883C-47C3-A4A6-C5A1992B0D8B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{FDD44EF3-8DC2-414F-94D9-15C535CED99D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{FC2364C8-1C2E-41BC-8EAD-045A29819ED3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A3E99807-D98E-46C5-A9F1-7DE10E41B0FF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F26547B1-6020-4CC1-B725-D83520719F0B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2E954B0C-D39B-4989-A31A-D06A134EBF5F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C67FF86B-6AB0-4F25-A09C-B9EE2C3ED683}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{8CB4417A-A732-45E5-A950-BF9AEF3ADECB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2533,7 +2533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50164B60-9FCC-47DF-A807-DA20A23463A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCAA5012-7999-49DF-901E-68C53CA00B0D}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3778,18 +3778,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A4B75092-5443-4A09-AE81-690BA2F8DD8C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{BCF10175-90A0-425A-BF7F-A25F3B447AEC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{915ED688-896E-4BC3-BB80-E7B6E031AC4E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3965046A-398C-4333-AEBB-DCBC5FBA31F4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{DDD9A326-CCF3-49DD-8282-E0B8885DB7A2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{54EE95D3-7071-45AA-ADE6-D0E3EA7E4258}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{651BBDD7-8B5B-4383-B3A5-169C322D759E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8B8E9C84-B443-46E5-8F60-9FF9AF48F8CC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E83ECCD6-24B4-41FC-BC6C-255900F9501D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5D065F9C-C3B5-4517-AAB6-AF3BA87DFD59}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{91CA311C-08D9-445B-8D35-CC89BB71BCE6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C94AEA3E-5466-4609-B791-201C39527F46}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2F026551-AE42-4BBD-B656-74EEAE575828}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{FC6BA6BD-C9E5-48D5-B8C3-1D692AEC0C4A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{8E686C7D-A045-4BD6-A4AB-3BAB2AEF06CF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{90A55147-4370-46B5-87EF-A3B2C1D57BC0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{443CFFFB-D3D4-40F0-B1FC-E6279DCD5FF0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3E0C0A89-B08C-4B6E-B8C3-9C2F02FB1DED}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{9198D4D7-6B68-4CF3-8104-1CDA71316C76}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D2D31D05-0882-4EA9-BD29-11F5DDB49D8F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{7E38C606-6F02-4942-BBEF-9F345784A70B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{06A33A7E-F4B4-4CEB-A3BD-26B60DFF1FD3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{9614B80C-432D-43E7-A984-E9803D829E4C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{DA9A0631-5E5C-4310-BA56-C36C6229BCB8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3802,7 +3802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E1E80A-D499-40D5-B37D-556CA2676142}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5B711A-81F9-4A79-A454-E4D8BE268922}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5047,18 +5047,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{43F361FC-15BA-40E8-890D-F97375EA0205}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{9BDB9C46-3B6A-4AAC-B5DA-1081B44224EF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{4C4BEE2A-E8B1-47D6-869E-F2E81E02001C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{AFDCBFE7-F9E0-47A3-A89F-2B8637B1BC6D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4AC3F7AB-6E52-4153-83CA-ACAEC48C73AB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{90AACEF3-FDBC-46F4-B7D4-47D1560C23EB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{27C3BBE3-8A8E-45D9-9B96-06C3DBC061A6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{60C23C54-D3F8-45F5-B223-D59169AAC08A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{5715EC47-0EEF-4A59-8341-15BBB996D16B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{CDA604A3-1FFD-4441-AFFC-483C0EEBB66A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{8188E3D5-BB12-49DC-9725-67F7833FCA1D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F6FB6221-0BC2-4341-8C72-E25AD184B2D2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B47191C4-91AF-4AA7-96A2-B91C7CE74439}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{68B18A5C-DEB1-48F8-BC78-ABDD5A581464}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{949BB183-8B62-4FCF-8777-015C59F91EA8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{CDAD8ADE-007F-489E-AC17-0A6466800806}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4B859D63-006A-4EE3-9F12-77A3BD8A4F09}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{69051C9B-64CC-486D-ABA1-114DDC2F3729}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{54CCE100-19A1-4A6B-A75B-BB00A95674A6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8E93EF65-045C-476B-BC0F-9FF5B8DA65C8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{30FBC83F-CA7A-4F50-A98A-6D74BB4340AD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{EF797C2F-10B7-4BBA-AB03-F5EC1F9D1898}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{1B65EAF8-E3DB-4966-A1F5-B01FC0423D2E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{96CF2BE1-9EAA-4AD2-B220-6DDDE2F6C5A3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5071,7 +5071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758ED636-D0F3-4776-B34B-888C6F006659}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9552917A-883E-4D82-BC53-626D282EFEF5}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6286,18 +6286,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D1469CAA-309A-44A2-8BE7-F06D1E9DC033}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{83665147-317E-4DF1-9A22-674AEA8DCD50}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{70758D8E-3EC9-4EB5-BE6B-C17D527B7C32}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{EEE293AF-73A6-442D-B37F-C6EF4232F2DF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0C256A0E-6DBA-4D3C-A593-EA316684B574}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{5617764E-8C61-41C1-B7EE-9D97AD69B1CF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{013932B6-674C-4594-A44A-55E33DC62F6F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{640F176B-4B5A-499E-9162-7D8FF8E64A1E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3FA23AC5-A514-4BE7-BC1A-1908C172D2D0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2F68B9BD-39CE-4C19-801F-6ABE4CEAD0B3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E8EEAE94-B9A7-41FB-B728-6B5A1616DBEA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5633B321-7BD9-425F-A245-9F79F73E25C5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{9543E0F6-DBBB-47D1-80F3-BD887E1C6167}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{09FA77BF-EC11-425A-AF8A-54919CB74F7F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{99186EF1-0F81-438B-8CA8-4CCE2F480998}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{28D1223F-A448-4F63-99B3-B90D723DE03B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{E675C0EA-4166-4717-ADE5-93DBA088F551}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{FD96CB39-2803-46A4-BC78-B8AEBE6F4DD3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{074380B6-F18F-41B4-96B3-81F7FDE7E15F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3DBC60B5-9223-4CDF-8806-6D52155DBFA1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{AAE6DB2A-A1E4-44C3-9C27-BB4A45A3B2F6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5F713D55-A9F4-40EC-A0B5-75F032FB62E5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{CBD80912-CF32-4681-AD1B-B1B7DDD01FA6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{AD946F49-F4DF-4B2E-9527-B7FA0BAAE6C5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6310,7 +6310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FC50A58-A1B4-47F2-A32C-193E1CDFFBFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8021966C-3593-413A-82B5-0BBE872F533A}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7585,18 +7585,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{9EC44D26-73E9-4D68-9EF1-E6BBA77DBDF3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{30CE199B-D2F5-42FF-BABA-0EB94CB41212}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{8B99E453-EC20-44EB-9384-5589A3090DC8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{ECC5C805-BD69-4A5E-AD79-D6887FE30FD4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{99EAB529-92B3-463C-882D-F3619943C1BA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D0CFC0C5-C982-4C68-ACA7-FE3EFD30EEF5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{26F10E5A-6E9B-49E0-8126-B54F0FC02788}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{BCC85CA0-F819-4A49-9649-247E7818DC6C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{25902175-6A48-4CE4-ACB6-E627611EC1F2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{35FD3056-344C-4FF3-A3BE-C490AC55209F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{43643857-BFEE-4593-8F1D-BB379EEF1315}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C889E176-3D93-4A71-A1D3-001F009C479E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{8957AB11-7013-4FD5-A97F-9830503B53C7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0588BE1F-1093-45D5-9200-5A9A9D14876F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B0D1DC34-A068-4A59-AC77-CDF6841E1A39}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B45022E7-FA41-40DE-9BA2-5ED92761DD7D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{BD377DB2-9045-4F17-AB25-DC0ACDA14E5D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{41AC2C52-89DE-4BF3-83B1-36A85737BD6F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{CF773491-7316-43A9-85D5-FD463A560C7F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F486536A-9310-445F-8E98-68C9DFC5FD7D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{59727178-9CEB-4253-953C-BC439FA8418D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B5370CAA-41AF-4300-AAFC-C5D6C86638C7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3E8AC9FF-0D72-449B-8AA1-BEF76E395577}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{CBCBFB76-440C-41A5-A96C-CB9B1E32B4A1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7609,7 +7609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E24D7903-B126-493C-A4F8-A49FC4D28077}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5570AE23-10C3-475D-9584-DFB81B024BAB}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8880,18 +8880,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0196E9AB-8EAD-4FBD-AF7E-335C4843DCE3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F4CC906C-1E8A-458D-B3E6-6273D81080B4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{AC021304-6CE5-4B4D-84FA-106FD9467364}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{92ED65DE-537C-4285-A29E-1B7EA1E4878F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8D93BA07-40A5-4138-8893-A65254AB72A8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{5DEBFD49-B273-4534-82E6-444A69A94F39}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C980DBAF-EB61-4B21-BCBF-418B49E14733}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{BE3428AD-D326-4B30-8DBB-92AFE8C318C5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{724F2A40-B994-49E7-AB7F-9CE62C522894}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2D3B4E7C-9FF3-428D-A99A-6BB74F0BF322}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3466A7FA-4897-4589-90BF-19EB6543B3E1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{6F6C26E0-049C-495A-BA41-9E2BCEEA8BB1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{8E1A4803-D463-48D8-BE41-8960C57E7F2D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{71A51147-5D89-4780-B66D-C9E9DA621F33}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{DEB622AE-07F2-4A58-B54B-920C7A14B048}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{77BC5863-DAC9-4673-B0ED-104D4987F488}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{258E28D1-889D-47B6-8B4C-0BCDB09E5653}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{861CEDA2-A3B4-4B38-B343-12AB7B1C4DBA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{E008FE32-D220-4BCF-9737-9646C7BE5CB8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{0417D453-58C6-48E9-812E-8A6ABBD49402}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A1EAC3AB-CA14-495D-A1EC-DD80A490184E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{523E70DC-1F51-4518-9DA3-A1F34E8238E3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2DA1F07D-CEDB-4F38-8B82-66F5C7F08E34}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{9FC2F2BD-8514-4469-A2C9-0CBF4BFA72A5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8904,7 +8904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34EDE680-B535-46E7-81D5-EC53B57A5CF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E8D124-A07F-4239-9ED3-D07F1C240386}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10169,18 +10169,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{71181B14-8CE2-4C16-8BF3-C13720C8C547}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{045AB417-6706-4B7B-A66B-E18E3EB24E2F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1B396E3A-AEE3-4A8C-ABEF-4F1C9B3828B4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3284419D-CA2F-47AB-9CD2-8A4B7CF7E3C6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{94B97B21-FF8C-4813-BCAB-6B09F26CCCFD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{377F18C8-D512-4F15-8DA0-FE0C5DDE4904}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{16B4EA0B-EC7B-4EF2-BB15-DA93D8979C3A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{98A66C0E-01CC-475B-B484-B7EDAED0C730}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E93E2C72-B75A-4F56-9C62-6B2A2B3F877A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{972B3876-A6E3-4465-B389-ACDFC8AA29BF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A962D453-4B5A-44C6-9D99-2E004CF9DACE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{133C766D-AB82-43A4-855C-5E4617A143DD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{84902C33-A024-43F9-BA73-14B1B4CB4901}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F0BA1F37-2B1B-4BE5-A691-2F6B8F0CBF16}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{71A87A62-7540-494F-BE33-4D9D4C301EF1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1E0B284F-CE62-4FF1-B91C-594BA29E38DF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{5E09DD3F-F093-4BE6-97E0-702FB61131E9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{A0EEC784-1AF9-4E58-8281-2D5E7B667627}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{94CF506D-DC58-4E00-BFCC-960A60BBC7B0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{147A16F3-E6EF-4423-B56B-934E4D032F14}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2B2C93D5-D4C3-4C52-AB17-D5D4E78DA5E3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{ACE095FC-E74C-4216-ABDF-57F2C5516F30}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3CAE285A-0FF2-43EF-ADC7-70123348AE7F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{66FA17FC-AEA9-40EC-9B8F-E075E3DA0620}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10193,7 +10193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04342D5-5411-412C-AE2F-8297E18BA721}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29CBC62-B2CF-421F-A5F7-B75C141917D4}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11458,18 +11458,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{8E131EAA-4CFC-45C1-8CD9-D33E60FD9071}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{900F2E73-D4FB-463E-A62E-F49DF6339CF9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B9A07954-04D3-4597-877E-36D9D55A12B3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{12576740-C057-4C42-A6C8-6BE0600A4343}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{CFB16D86-CD48-45A7-A765-D836DADD72B1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{6DC03B9C-70AF-4BD0-98DD-A7783D5E7376}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{94C52DD9-F269-4AB7-86AA-EF76A2CA8912}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3E9D1037-17AA-4774-B256-6B2E2BE218A2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{79F94283-AA8A-4F11-8DD9-9477F1AEACB5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F5C34263-803F-4DFB-A725-45F8B940CA81}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B456E1C5-F0CF-484E-9988-AED999ECDCCC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A9CB18BC-E8B4-410B-BEEC-4A79111D691E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E3665023-4159-4CF6-BEBB-0BA30603D79B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{985A1864-762E-409C-BA8C-CB7E1C2444FF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{2A7141CF-1FB4-43D0-9867-4666DBD2DDC7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B1461CA0-6E69-49AA-8782-651658C03C18}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F70954A0-0151-4B61-9503-06D3840C3E26}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E3243AD0-C728-4108-B1C2-6FC20F56AACD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{799546B3-2DA4-4F19-9896-605B7075B44F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{EFDDE8FE-982B-46D1-BBB3-7EC978B96D36}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B50E5D2C-3A50-4A77-82FE-18C4E29B1AD8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{1DF57C94-C983-42BF-BD0E-DC63087F2787}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{FBE7CE87-7954-4E9F-8EC0-4588DFFBB464}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F118C972-EBB0-4C7D-9887-D5F76B3EC1F1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11482,7 +11482,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD67D20-8006-4BAF-86DE-4F2B3C49AECE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ACD5322-6434-42A8-9263-E74C26033BEE}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12747,18 +12747,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B6BA4A11-D518-4914-90E9-135A44B090AE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{AC001FCF-046C-45AF-BE33-01FC64A8E03B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F9ED4C3B-152C-4414-8F30-D0F373E0CF27}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A22E82BB-6B53-4EA5-A839-F33DC4905823}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{211D3BFE-4F80-4C78-9078-61EED1A7680E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B29A077C-5C7D-4CE6-82C0-F438C29DD9CE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{2A7AE90C-D6E9-4A14-9D01-BB607922E4BE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9F9EC2BF-9096-42FE-B017-559EF973EE1A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{DBD43739-3C68-44D2-A67B-51BB4CF8C7AB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{99460564-6A0C-4824-B78D-529A63A19823}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{825EA4F4-CE58-4649-AAD9-46B6595D9768}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{172FE6A3-4822-4FB2-80B2-45A2BA5E07F2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{14E7227D-EC69-449B-B6B8-6558A3DA3D48}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{BB7396C4-9CF1-46A3-A729-9C078FB243B8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9480CB73-7D8B-4894-BDEB-718CF3C1E553}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{4BECB335-F9B6-4102-9891-589B043C24FD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{FBB66068-C135-4152-9A54-ACBF66C06E74}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{19CAECA1-9503-4D70-9A26-214792A12405}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{177A09B8-CC28-4BB4-8C50-103B74CE034A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{4EB38530-86BA-4FB2-A6EE-3C8B1C925DE0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{030C366F-EFD0-4211-A95C-5DB87E4B76C1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{0A77F66C-3BE4-4AE4-BCBA-91D8A2A597EB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{AF74B49C-1B93-4129-91D8-77D04126A592}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{1D659EB8-F7F3-4D91-A9C2-6DA97BCA3DD8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12771,7 +12771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A548FB-0F86-4EA3-ADFE-7A624FE66B4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B57ACC-AF71-49F2-9AC3-DF3A9D5D8A28}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14034,18 +14034,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{4CD8E7CC-C78F-4466-9E99-30EBABE4DBEC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A980B080-7B47-4829-826B-1DCE888DEB5F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{788A19CA-1FCC-475C-A976-2019FB6123B5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{CBEF2D5A-F61D-4895-B01E-2DB96051904B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{66CC9F2C-24B2-48F6-BB07-509B3E589EFF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{ACA0A77E-D7FE-4B33-8AF2-D8B1B50407F5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{910EB7B7-7D3D-4374-9697-2433C40DBA30}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{05A7B0D7-63F3-461C-8637-57566F3E28D7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{BB2E3663-2F81-4CF6-BADA-474799924A17}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F984EB1C-9180-4394-ABE7-8061010FA6C4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{AEACB07B-DE08-4560-BDCF-D613F28B2511}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{DBC0F675-B4C8-405F-BFE2-450FB8FCFF76}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{3AA3F200-AE48-4E38-A5B6-2E11D14C12E5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{EEEE06CA-2E35-4719-9698-7623A46101BE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{0D4C4E8B-E552-4FFF-990B-675243EB859D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{EBAF59E3-7A19-4B53-AF65-0B99EA5BDE5C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6A11640D-20C1-405C-9892-206D3176C3D8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{161E4A6F-0202-4A44-88E7-5C1AE6FDE912}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6C7A4E5D-76AB-4561-AE7B-7085FFE5CEC2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{EDFD8328-B7F7-4691-BD11-97497479B4CF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E7D935AB-F068-46C7-B5C6-8C511DE4FF64}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{30BEFF4A-7014-404C-8D94-ACA7E2B64AE3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F0D1B9A3-6464-445F-91D1-4CB54DA1E3DA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{97F193CA-B899-4033-8100-2979EFD053E7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14058,7 +14058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C677E9D-5B92-415F-8B16-586E8CD31797}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184A6932-8BED-4506-A6D1-0B159D53B511}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15321,18 +15321,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{5887CA36-9E36-4BDC-9C3B-4C60D259969A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B070F22F-6C62-42FD-A726-2074A2E52EAC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{511D6078-DBFA-499D-A72B-203749052015}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{621EF72D-CAA6-4EA8-BF94-F82F54EBDA0E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{950995DB-5971-47D0-BB97-C5678E4D5285}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F647CAF3-821D-4ACB-989E-E74376E48D5E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4924AA6F-DA79-4D79-A915-97CB0438D407}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2BF3DC44-FA1B-4FFF-A90A-DB09C2405579}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3523434B-1876-440E-BC00-A67DD472B168}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{95FA0E43-E938-40B2-8883-CC3287B6007B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6E129E87-6594-4901-8D56-FF4D554C1F1B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{AC20279A-B482-4ABB-AA29-59CD1C508993}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{4FF97FC0-F259-4EC9-8FE2-C05B9BE55C12}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D1189706-89A1-4CCB-91FD-855308968F79}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{2F81CC9A-9F3F-4C5A-B82E-E9BC5FE40BD3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1775BFAC-D6C7-40B9-BA0D-E669AAFA198B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F37435EF-924F-4359-86F5-F068BB6B364C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{03E15D7A-41A8-45A7-80F9-1BC02B214E3B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{524471E4-0743-4F04-8DA1-21E47613C89D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{31D4FDFA-A620-488F-9EA1-808708578D81}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{70A9FE4D-817F-44CF-A9F3-993E3691D6B2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B9EB40DB-C239-420F-981A-A4DC04B362CC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7F845902-E116-43BC-B069-5D1484810831}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C5406BF2-CE53-4484-BF9B-2B563FA195D2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15345,7 +15345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64C2CED-F976-45C9-B278-E57454B14E32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11714FD8-7EF6-44FC-A4BF-902D287F62B9}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -16604,18 +16604,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{3E6C10BC-704D-46C8-A4A5-7A2CD067059E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{3E881B51-5FE4-4130-897D-956888736F4A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B9608CFD-46B5-45DD-BE81-0917068F7E96}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{77818D39-AC18-4180-9EE4-B780D40A6498}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{56E39602-1F9B-401A-9C3F-75DFA483B351}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{127BFE7A-23F7-4C1A-989E-82F005708232}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{1C0C2ECA-7114-4DAD-BA97-5B56ED8D872F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D6B7EC8A-D9B2-4D67-92E5-3F64F3C2D6F3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{BEB31109-E091-49BE-B556-402DEA8F9EB1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{CF69D53D-A2AE-490E-A251-4B377F63249C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B8E5DEE0-0CAF-4FDE-97DA-68DE84255F18}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5B806B2A-B9C4-4810-8DB7-64381B8EEA30}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2B0620A0-E3E1-428B-98D8-A85989ADBFED}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4478583A-645B-47DB-8C36-B614DEC46271}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9DCF9A33-2FE8-4DD5-AD7F-8EBADCACD424}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{82D31BAF-EF71-43E5-B985-01307B4C3BF1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{DC16D43F-1C7B-41AE-BF2D-0E5A0E479667}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D9065C1B-1B19-4A9B-9AAB-3012F205C0D9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6E161210-936B-4718-A011-BCC9F1A9ECFF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A315ADB5-50F0-43CF-A15F-4677D94D51CB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{43E25F92-78D5-4EDB-98B7-9E35CCC75560}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{8356C650-354D-4D47-8A71-35984DD49C8D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2D01AD12-6F85-4446-BA97-9349A7261FD1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A13999E4-E7D2-4D52-81BB-0E248E204AC5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
